--- a/data/trans_dic/P56$familiar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3366413579306913</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6042786023961466</v>
+        <v>0.6042786023961465</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0.5716409379048658</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7066190758012443</v>
+        <v>0.7066190758012442</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1513201958664681</v>
@@ -697,7 +697,7 @@
         <v>0.4892316356876093</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.667347771434694</v>
+        <v>0.6673477714346939</v>
       </c>
     </row>
     <row r="5">
@@ -711,35 +711,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1409056722246935</v>
+        <v>0.1407983620484443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08747345883581259</v>
+        <v>0.08530416356459332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1486079196848311</v>
+        <v>0.1498579105710155</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.2466977923371272</v>
+        <v>0.2464394887224423</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3012185293078669</v>
+        <v>0.2898582661495036</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4482308315717399</v>
+        <v>0.4575621728370191</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2942243785816416</v>
+        <v>0.2912279951324136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.293758121377541</v>
+        <v>0.3014755455486547</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4410919830951117</v>
+        <v>0.4535516560737648</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7686967897582988</v>
+        <v>0.9008639659628177</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8592142317747723</v>
+        <v>0.8596682015069962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6712083684388226</v>
+        <v>0.5967616399325226</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8791530554779193</v>
+        <v>0.877436601488208</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.6585098056940093</v>
+        <v>0.654496112859729</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7868481813087945</v>
+        <v>0.7952779794398547</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8928017569986753</v>
+        <v>0.8918132894530675</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6344192705551296</v>
+        <v>0.6747339760693084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6713884667514857</v>
+        <v>0.6864471168024906</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6796685484308848</v>
+        <v>0.6769647426337215</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8394747587503935</v>
+        <v>0.8423791458164108</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.2772024869477266</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5787081891442889</v>
+        <v>0.5787081891442888</v>
       </c>
     </row>
     <row r="8">
@@ -847,31 +847,31 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.2109840037986789</v>
+        <v>0.1827041325563135</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05898343408635835</v>
+        <v>0.05870110056385717</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02939587405573289</v>
+        <v>0.02914224936073988</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1345906500016896</v>
+        <v>0.1409692237573467</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5064076771296411</v>
+        <v>0.5026852246195302</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08285766547510579</v>
+        <v>0.0829191780869417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04240768926111749</v>
+        <v>0.0424048112707093</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1103896582912064</v>
+        <v>0.1091205101351981</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.468613898237182</v>
+        <v>0.4710379932458243</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6923995887922774</v>
+        <v>0.7031708528482997</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4468493258804389</v>
+        <v>0.4458905957414579</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.7174760043708596</v>
+        <v>0.7159824967387376</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4734095828987383</v>
+        <v>0.4191707021717584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2628107197196314</v>
+        <v>0.2759941345530975</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6839554996556734</v>
+        <v>0.6793087294452415</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7260441343563119</v>
+        <v>0.7314480290700676</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4139234166043215</v>
+        <v>0.4453164735172943</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2501000677692541</v>
+        <v>0.2401353731264841</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5350287546259438</v>
+        <v>0.5244394760036227</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6775577456332913</v>
+        <v>0.6873353180540334</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5655281394174236</v>
+        <v>0.5655281394174235</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09198167714862088</v>
@@ -949,7 +949,7 @@
         <v>0.114469368396369</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4938894299625861</v>
+        <v>0.4938894299625859</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07421447359874953</v>
@@ -961,7 +961,7 @@
         <v>0.07347477844481667</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5187918257978625</v>
+        <v>0.5187918257978626</v>
       </c>
     </row>
     <row r="11">
@@ -977,31 +977,31 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.3610184519693096</v>
+        <v>0.4011163930327049</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1599838050766858</v>
+        <v>0.1137504304393424</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3796888894803984</v>
+        <v>0.3762719514833111</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1137398226303851</v>
+        <v>0.1087696397674097</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4230409175272878</v>
+        <v>0.4107017131635722</v>
       </c>
     </row>
     <row r="12">
@@ -1013,35 +1013,35 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.5042015441931184</v>
+        <v>0.4875599417292188</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.7310046319180464</v>
+        <v>0.7565382547171514</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4285749693741435</v>
+        <v>0.4298368555187479</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5603196172836876</v>
+        <v>0.6022754279541791</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.500288274458774</v>
+        <v>0.5604318772069408</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6169780551507769</v>
+        <v>0.6129049123029866</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3432089950296145</v>
+        <v>0.3389682346962499</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4651059164070941</v>
+        <v>0.4640882409336085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3188343070445137</v>
+        <v>0.4193927646235679</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6214688079953612</v>
+        <v>0.6074484963387001</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0.08122977122018173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.500790213035388</v>
+        <v>0.5007902130353878</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1032431991955156</v>
@@ -1077,7 +1077,7 @@
         <v>0.2307774443862052</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.680316632642788</v>
+        <v>0.6803166326427881</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08335679443862121</v>
@@ -1101,37 +1101,37 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.110514783865344</v>
+        <v>0.1129817287492866</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2313027171001781</v>
+        <v>0.2327880491465152</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.28772705866141</v>
+        <v>0.3216554227340291</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05171741144202219</v>
+        <v>0.05039385164510016</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5286614408235669</v>
+        <v>0.5391138431630396</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3108335476643863</v>
+        <v>0.2795702378010565</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0657403050747126</v>
+        <v>0.06232418809263619</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4882566698002402</v>
+        <v>0.4908341201998804</v>
       </c>
     </row>
     <row r="15">
@@ -1143,37 +1143,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.7444656194403573</v>
+        <v>0.7600351893987234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3526038672050376</v>
+        <v>0.3450954964720394</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.749699414684457</v>
+        <v>0.7596449045656549</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4289067534831856</v>
+        <v>0.4160166694441891</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7479003802662512</v>
+        <v>0.7180275191923361</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4927950064346275</v>
+        <v>0.5116709042759833</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7957610290628423</v>
+        <v>0.8059967821275467</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3415701163076046</v>
+        <v>0.41488008937239</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.682275217314205</v>
+        <v>0.656143147942073</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3727941869976027</v>
+        <v>0.3771289124740653</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7361207639386507</v>
+        <v>0.7420484591602274</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3943024619050516</v>
+        <v>0.3943024619050515</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2564297408683505</v>
@@ -1209,7 +1209,7 @@
         <v>0.09607431541435492</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.568151778945978</v>
+        <v>0.5681517789459781</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.234616149930608</v>
@@ -1235,35 +1235,35 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1542882791414372</v>
+        <v>0.1530099475088224</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.1389626181483164</v>
+        <v>0.181777607604694</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05489459209471669</v>
+        <v>0.05528608436676115</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4163113677685986</v>
+        <v>0.4255805342837212</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05999346111622852</v>
+        <v>0.0633743815021728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1246063652484534</v>
+        <v>0.1203445670595934</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3822971491173838</v>
+        <v>0.3836851678843061</v>
       </c>
     </row>
     <row r="18">
@@ -1274,38 +1274,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7886161252480418</v>
+        <v>0.7886297521495331</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8344876110450626</v>
+        <v>0.8342390880184181</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.6558872809599886</v>
+        <v>0.6532581257646309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6577371608168223</v>
+        <v>0.6418449068812282</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4324778104449147</v>
+        <v>0.4324288505884268</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3906099124370075</v>
+        <v>0.3905371698412271</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7043639626667715</v>
+        <v>0.7195276462294984</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5475454709269985</v>
+        <v>0.589997434620593</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.493208570060015</v>
+        <v>0.4853989422555174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4394397636186459</v>
+        <v>0.3667013061209412</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6426378457928277</v>
+        <v>0.6451894469873327</v>
       </c>
     </row>
     <row r="19">
@@ -1329,7 +1329,7 @@
         <v>0.1664830114995211</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5288714525453526</v>
+        <v>0.5288714525453525</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2235921248890018</v>
@@ -1353,7 +1353,7 @@
         <v>0.1292116576113448</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5182641585040546</v>
+        <v>0.5182641585040545</v>
       </c>
     </row>
     <row r="20">
@@ -1373,31 +1373,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3693112175394112</v>
+        <v>0.3745149218010576</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1517079049855376</v>
+        <v>0.1506157632448422</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3988882601322813</v>
+        <v>0.4089681002493343</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05570177291844571</v>
+        <v>0.05871777421542403</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1362256586893705</v>
+        <v>0.132918770985446</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03570853217412909</v>
+        <v>0.03658918115377708</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4263830835047839</v>
+        <v>0.4328090400422677</v>
       </c>
     </row>
     <row r="21">
@@ -1408,40 +1408,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7291707325698422</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5046230844247545</v>
+        <v>0.5038677784669525</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4771177232657173</v>
+        <v>0.5189204634367495</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6790194650584386</v>
+        <v>0.6818965864945118</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5775320472923169</v>
+        <v>0.5888195999044729</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5731285986115718</v>
+        <v>0.5734769352905839</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3475911324075209</v>
+        <v>0.3749017385982473</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6061025531968647</v>
+        <v>0.6123013187045743</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4933716818890654</v>
+        <v>0.5213698095240757</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4475717866837148</v>
+        <v>0.4495379363358552</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3112386348030599</v>
+        <v>0.3119460756813636</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.607207478397403</v>
+        <v>0.6030578473361999</v>
       </c>
     </row>
     <row r="22">
@@ -1465,7 +1465,7 @@
         <v>0.1855091105190897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.452682204058075</v>
+        <v>0.4526822040580751</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2620856206870485</v>
@@ -1477,7 +1477,7 @@
         <v>0.2513481080141708</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4514075183066952</v>
+        <v>0.4514075183066951</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2032266124823469</v>
@@ -1489,7 +1489,7 @@
         <v>0.2304514177245628</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4516931259290772</v>
+        <v>0.4516931259290774</v>
       </c>
     </row>
     <row r="23">
@@ -1506,34 +1506,34 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04489786958801403</v>
+        <v>0.04450966407144993</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2083432059644824</v>
+        <v>0.2028611772204859</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1566412327535222</v>
+        <v>0.1665269544927623</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1193152974665753</v>
+        <v>0.13091033462975</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.33021406226424</v>
+        <v>0.3434510999663797</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1351101786761897</v>
+        <v>0.1469640664681751</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1361071286037696</v>
+        <v>0.1321436455541472</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3493607877519059</v>
+        <v>0.3576245526864427</v>
       </c>
     </row>
     <row r="24">
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6508073871180026</v>
+        <v>0.6620961490781809</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3940056452794516</v>
+        <v>0.3961035733274276</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4068292758583524</v>
+        <v>0.4125917414337135</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6976606546455784</v>
+        <v>0.7088357670612655</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.776133457004886</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4773066418344482</v>
+        <v>0.4815132522341058</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4160498440473866</v>
+        <v>0.4126893844887228</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5592313485688617</v>
+        <v>0.5623579504270262</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6146813365302567</v>
+        <v>0.5938352300109422</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3853604904526458</v>
+        <v>0.4085781342807404</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3653972814920233</v>
+        <v>0.3580014756543841</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5541323263965545</v>
+        <v>0.55372085631156</v>
       </c>
     </row>
     <row r="25">
@@ -1613,7 +1613,7 @@
         <v>0.221848403554166</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5772220357607574</v>
+        <v>0.5772220357607573</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2189760484584778</v>
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08834715839056222</v>
+        <v>0.08835652725059077</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09989146993021394</v>
+        <v>0.09839484491632082</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08609441913844987</v>
+        <v>0.08739344920583257</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3344643299176879</v>
+        <v>0.3331366294290447</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07835511618516421</v>
+        <v>0.07728933523879912</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1184583957664278</v>
+        <v>0.1165654803226136</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05776000879017732</v>
+        <v>0.05783492751202654</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4698195638424182</v>
+        <v>0.4786717691504726</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.106914374860074</v>
+        <v>0.1152784769831087</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1693151408213353</v>
+        <v>0.1470264165731668</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1078406880360818</v>
+        <v>0.1040624629444336</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.477713671279035</v>
+        <v>0.4732047951976159</v>
       </c>
     </row>
     <row r="27">
@@ -1680,40 +1680,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4498063265857826</v>
+        <v>0.4413931228608701</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7546945357641333</v>
+        <v>0.858431501042288</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.666505612191431</v>
+        <v>0.6725416132995724</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.683621221654053</v>
+        <v>0.6637098960923892</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.402783550817027</v>
+        <v>0.3945969992067082</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4608886751780238</v>
+        <v>0.4540164867040473</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4553702488839387</v>
+        <v>0.4620875875627386</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6703696212811981</v>
+        <v>0.6695013751588016</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3539640107517627</v>
+        <v>0.3683207075219324</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4694243291506888</v>
+        <v>0.453734408548725</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4349367989377657</v>
+        <v>0.4369628097328693</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.6368244681075844</v>
+        <v>0.6358095987814877</v>
       </c>
     </row>
     <row r="28">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2354706799449807</v>
+        <v>0.2376589318981768</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5138843019793787</v>
+        <v>0.5096775015769961</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2313366517240805</v>
+        <v>0.229382702582463</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4958209510127506</v>
+        <v>0.4959833005710579</v>
       </c>
     </row>
     <row r="30">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3669746849415855</v>
+        <v>0.364809835805301</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6007935047953623</v>
+        <v>0.5978108457559543</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3421768818472574</v>
+        <v>0.340689075035521</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5752238568552629</v>
+        <v>0.578298275574024</v>
       </c>
     </row>
     <row r="31">
@@ -2127,35 +2127,35 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5539</v>
+        <v>5330</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3790</v>
+        <v>3869</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8323</v>
+        <v>8238</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8320</v>
+        <v>8538</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6052</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="7">
@@ -2166,38 +2166,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>2706</v>
+        <v>3171</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6058</v>
+        <v>6062</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6666</v>
+        <v>5927</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4629</v>
+        <v>4620</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>13984</v>
+        <v>13899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14470</v>
+        <v>14625</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7549</v>
+        <v>7540</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3756</v>
+        <v>3994</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18992</v>
+        <v>19418</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19250</v>
+        <v>19173</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11518</v>
+        <v>11557</v>
       </c>
     </row>
     <row r="8">
@@ -2307,31 +2307,31 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>2759</v>
+        <v>2389</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2398</v>
+        <v>2512</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22644</v>
+        <v>22477</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>2062</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2572</v>
+        <v>2543</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>27083</v>
+        <v>27223</v>
       </c>
     </row>
     <row r="11">
@@ -2342,38 +2342,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4764</v>
+        <v>4838</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5233</v>
+        <v>5221</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>9383</v>
+        <v>9364</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6963</v>
+        <v>6165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9700</v>
+        <v>10187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12187</v>
+        <v>12105</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32464</v>
+        <v>32706</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8936</v>
+        <v>9613</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12160</v>
+        <v>11675</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12468</v>
+        <v>12221</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>39158</v>
+        <v>39723</v>
       </c>
     </row>
     <row r="12">
@@ -2481,31 +2481,31 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>6452</v>
+        <v>7169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3081</v>
+        <v>2190</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12736</v>
+        <v>12622</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3244</v>
+        <v>3102</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21752</v>
+        <v>21117</v>
       </c>
     </row>
     <row r="15">
@@ -2517,35 +2517,35 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4672</v>
+        <v>4518</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>13065</v>
+        <v>13522</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5252</v>
+        <v>5267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10790</v>
+        <v>11598</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5390</v>
+        <v>6038</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20696</v>
+        <v>20559</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5212</v>
+        <v>5148</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13266</v>
+        <v>13237</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>5352</v>
+        <v>7040</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>31955</v>
+        <v>31234</v>
       </c>
     </row>
     <row r="16">
@@ -2649,37 +2649,37 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2202</v>
+        <v>2216</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6461</v>
+        <v>7223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1289</v>
+        <v>1256</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11007</v>
+        <v>11225</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9679</v>
+        <v>8706</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2296</v>
+        <v>2177</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>14814</v>
+        <v>14892</v>
       </c>
     </row>
     <row r="19">
@@ -2691,37 +2691,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>6466</v>
+        <v>6601</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3528</v>
+        <v>3453</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7136</v>
+        <v>7231</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4638</v>
+        <v>4499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16794</v>
+        <v>16123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12282</v>
+        <v>12753</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16569</v>
+        <v>16782</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4575</v>
+        <v>5557</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>21246</v>
+        <v>20432</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13022</v>
+        <v>13173</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>22334</v>
+        <v>22514</v>
       </c>
     </row>
     <row r="20">
@@ -2827,35 +2827,35 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>1067</v>
+        <v>1396</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7167</v>
+        <v>7327</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>793</v>
+        <v>838</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3290</v>
+        <v>3178</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9517</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="23">
@@ -2869,35 +2869,35 @@
         <v>3376</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5596</v>
+        <v>5594</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>5035</v>
+        <v>5015</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5878</v>
+        <v>5736</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8519</v>
+        <v>8518</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12126</v>
+        <v>12387</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7237</v>
+        <v>7798</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13023</v>
+        <v>12817</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5674</v>
+        <v>4735</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15997</v>
+        <v>16061</v>
       </c>
     </row>
     <row r="24">
@@ -3009,31 +3009,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6114</v>
+        <v>6200</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3064</v>
+        <v>3042</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>12984</v>
+        <v>13312</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4202</v>
+        <v>4100</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1175</v>
+        <v>1204</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>20938</v>
+        <v>21254</v>
       </c>
     </row>
     <row r="27">
@@ -3044,40 +3044,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2688</v>
+        <v>3687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5374</v>
+        <v>5366</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5159</v>
+        <v>5611</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11242</v>
+        <v>11289</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6092</v>
+        <v>6211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11574</v>
+        <v>11581</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7684</v>
+        <v>8287</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19729</v>
+        <v>19930</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7023</v>
+        <v>7422</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>13805</v>
+        <v>13866</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10245</v>
+        <v>10268</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>29818</v>
+        <v>29614</v>
       </c>
     </row>
     <row r="28">
@@ -3186,34 +3186,34 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3106</v>
+        <v>3024</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5550</v>
+        <v>5900</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5119</v>
+        <v>5616</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>17050</v>
+        <v>17733</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6888</v>
+        <v>7492</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>8554</v>
+        <v>8305</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>23247</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="31">
@@ -3224,40 +3224,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3376</v>
+        <v>3434</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6127</v>
+        <v>6160</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8115</v>
+        <v>8230</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10401</v>
+        <v>10568</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3068</v>
+        <v>3953</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>16910</v>
+        <v>17060</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17849</v>
+        <v>17705</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>28874</v>
+        <v>29036</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5618</v>
+        <v>5428</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>19646</v>
+        <v>20829</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>22965</v>
+        <v>22500</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>36873</v>
+        <v>36845</v>
       </c>
     </row>
     <row r="32">
@@ -3360,40 +3360,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>7926</v>
+        <v>7895</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2345</v>
+        <v>2313</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3561</v>
+        <v>3504</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>31241</v>
+        <v>31830</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5254</v>
+        <v>5665</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>6595</v>
+        <v>5727</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3436</v>
+        <v>3316</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>43087</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="35">
@@ -3404,40 +3404,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8642</v>
+        <v>8480</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6706</v>
+        <v>7628</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6068</v>
+        <v>6123</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>16201</v>
+        <v>15729</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>12056</v>
+        <v>11811</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13856</v>
+        <v>13649</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>10364</v>
+        <v>10517</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>44577</v>
+        <v>44519</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>17395</v>
+        <v>18101</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>18284</v>
+        <v>17673</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>13859</v>
+        <v>13924</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>57438</v>
+        <v>57347</v>
       </c>
     </row>
     <row r="36">
@@ -3540,40 +3540,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>48329</v>
+        <v>48778</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>141539</v>
+        <v>140380</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>65642</v>
+        <v>65087</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>190398</v>
+        <v>190460</v>
       </c>
     </row>
     <row r="39">
@@ -3584,40 +3584,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>75320</v>
+        <v>74875</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>165476</v>
+        <v>164654</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>97093</v>
+        <v>96671</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>220889</v>
+        <v>222069</v>
       </c>
     </row>
     <row r="40">
